--- a/2016년 수강료 6월/논술2 수강료.xlsx
+++ b/2016년 수강료 6월/논술2 수강료.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>*주야</t>
   </si>
@@ -238,28 +238,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -558,13 +558,13 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="9.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -592,464 +592,474 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7">
-        <f t="shared" ref="F2:F19" si="0">F$29</f>
-        <v>30240</v>
-      </c>
-      <c r="G2" s="5"/>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F21" si="0">F$29</f>
+        <v>30240</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>17</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G10" s="5"/>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G12" s="5"/>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>6</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>24</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G15" s="5"/>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>18</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7">
-        <v>7</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>18</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>30240</v>
-      </c>
-      <c r="G19" s="5"/>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>20</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>8</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="26" spans="1:7">
       <c r="C26" s="1" t="s">
